--- a/Shocks/Shock_files/Constant_2016_Worst.xlsx
+++ b/Shocks/Shock_files/Constant_2016_Worst.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1504">
   <si>
     <t>China</t>
   </si>
@@ -366,12 +366,6 @@
     <t>Processing vegetable oils and fats</t>
   </si>
   <si>
-    <t>Production of DFIG generators</t>
-  </si>
-  <si>
-    <t>Production of PMG generators</t>
-  </si>
-  <si>
     <t>Production of electricity by Geothermal</t>
   </si>
   <si>
@@ -411,18 +405,12 @@
     <t>Production of meat products nec</t>
   </si>
   <si>
-    <t>Production of mono-Si and poli-Si cells</t>
-  </si>
-  <si>
     <t>Production of offshore wind plants</t>
   </si>
   <si>
     <t>Production of onshore wind plants</t>
   </si>
   <si>
-    <t>Production of photovoltaic modules</t>
-  </si>
-  <si>
     <t>Production of photovoltaic plants</t>
   </si>
   <si>
@@ -645,9 +633,6 @@
     <t>Crude petroleum and services related to crude oil extraction, excluding surveying</t>
   </si>
   <si>
-    <t>DFIG generators</t>
-  </si>
-  <si>
     <t>Dairy products</t>
   </si>
   <si>
@@ -657,9 +642,6 @@
     <t>Distribution services of gaseous fuels through mains</t>
   </si>
   <si>
-    <t>Dysprosium</t>
-  </si>
-  <si>
     <t>Education services (80)</t>
   </si>
   <si>
@@ -822,9 +804,6 @@
     <t>Membership organisation services n.e.c. (91)</t>
   </si>
   <si>
-    <t>Mono-Si and poli-Si cells</t>
-  </si>
-  <si>
     <t>Motor Gasoline</t>
   </si>
   <si>
@@ -840,9 +819,6 @@
     <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
   </si>
   <si>
-    <t>Neodymium</t>
-  </si>
-  <si>
     <t>Nickel ores and concentrates</t>
   </si>
   <si>
@@ -903,9 +879,6 @@
     <t>Oxygen Steel Furnace Gas</t>
   </si>
   <si>
-    <t>PMG generators</t>
-  </si>
-  <si>
     <t>Paddy rice</t>
   </si>
   <si>
@@ -936,9 +909,6 @@
     <t>Petroleum Coke</t>
   </si>
   <si>
-    <t>Photovoltaic modules</t>
-  </si>
-  <si>
     <t>Photovoltaic plants</t>
   </si>
   <si>
@@ -988,9 +958,6 @@
   </si>
   <si>
     <t>Railway transportation services</t>
-  </si>
-  <si>
-    <t>Raw silicon</t>
   </si>
   <si>
     <t>Real estate services (70)</t>
@@ -4941,13 +4908,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E1" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4958,13 +4925,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4975,13 +4942,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4992,13 +4959,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5006,13 +4973,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5020,13 +4987,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5034,13 +5001,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5048,10 +5015,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5059,10 +5026,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5070,10 +5037,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5081,10 +5048,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5092,10 +5059,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5103,7 +5070,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5111,7 +5078,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5119,7 +5086,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5127,7 +5094,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -5135,7 +5102,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5143,7 +5110,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -5151,7 +5118,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -5159,7 +5126,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -5167,7 +5134,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -5175,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -5183,7 +5150,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5191,7 +5158,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -5199,7 +5166,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -5207,7 +5174,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -5215,7 +5182,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -5223,7 +5190,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -5231,7 +5198,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -5239,7 +5206,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -5247,7 +5214,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -5255,7 +5222,7 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -5263,7 +5230,7 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -5271,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -5279,7 +5246,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -5287,7 +5254,7 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -5295,7 +5262,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -5303,7 +5270,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -5311,7 +5278,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -5319,7 +5286,7 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -5327,7 +5294,7 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -5335,7 +5302,7 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -5343,7 +5310,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -5351,7 +5318,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -5359,7 +5326,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -5367,7 +5334,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -5375,7 +5342,7 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -5383,7 +5350,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -5391,7 +5358,7 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -5399,7 +5366,7 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -5407,7 +5374,7 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -5415,7 +5382,7 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -5423,7 +5390,7 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -5431,7 +5398,7 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -5439,7 +5406,7 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -5447,7 +5414,7 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -5455,7 +5422,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -5463,7 +5430,7 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -5471,7 +5438,7 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -5479,7 +5446,7 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -5487,7 +5454,7 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -5495,7 +5462,7 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -5503,7 +5470,7 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -5511,7 +5478,7 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -5519,7 +5486,7 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -5527,7 +5494,7 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -5535,7 +5502,7 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -5543,7 +5510,7 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -5551,7 +5518,7 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -5559,7 +5526,7 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -5567,7 +5534,7 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5575,7 +5542,7 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -5583,7 +5550,7 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -5591,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -5599,7 +5566,7 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -5607,7 +5574,7 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -5615,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -5623,7 +5590,7 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -5631,7 +5598,7 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -5639,7 +5606,7 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -5647,7 +5614,7 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -5655,7 +5622,7 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -5663,7 +5630,7 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -5671,7 +5638,7 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -5679,7 +5646,7 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -5687,7 +5654,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -5695,7 +5662,7 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -5703,7 +5670,7 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -5711,7 +5678,7 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -5719,7 +5686,7 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -5727,7 +5694,7 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -5735,7 +5702,7 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -5743,7 +5710,7 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -5751,7 +5718,7 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -5759,7 +5726,7 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -5767,7 +5734,7 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -5775,7 +5742,7 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -5783,7 +5750,7 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -5791,7 +5758,7 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -5799,7 +5766,7 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -5807,7 +5774,7 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -5815,7 +5782,7 @@
         <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -5823,7 +5790,7 @@
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -5831,7 +5798,7 @@
         <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -5839,7 +5806,7 @@
         <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -5847,7 +5814,7 @@
         <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -5855,7 +5822,7 @@
         <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -5863,7 +5830,7 @@
         <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="2:4">
@@ -5871,7 +5838,7 @@
         <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="2:4">
@@ -5879,7 +5846,7 @@
         <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="2:4">
@@ -5887,7 +5854,7 @@
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="2:4">
@@ -5895,7 +5862,7 @@
         <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="2:4">
@@ -5903,7 +5870,7 @@
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="2:4">
@@ -5911,7 +5878,7 @@
         <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="2:4">
@@ -5919,7 +5886,7 @@
         <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="2:4">
@@ -5927,7 +5894,7 @@
         <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="2:4">
@@ -5935,7 +5902,7 @@
         <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="2:4">
@@ -5943,7 +5910,7 @@
         <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="2:4">
@@ -5951,7 +5918,7 @@
         <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -5959,7 +5926,7 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="2:4">
@@ -5967,7 +5934,7 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="2:4">
@@ -5975,7 +5942,7 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="2:4">
@@ -5983,7 +5950,7 @@
         <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="2:4">
@@ -5991,7 +5958,7 @@
         <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="2:4">
@@ -5999,7 +5966,7 @@
         <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="2:4">
@@ -6007,7 +5974,7 @@
         <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="2:4">
@@ -6015,7 +5982,7 @@
         <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="2:4">
@@ -6023,7 +5990,7 @@
         <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="2:4">
@@ -6031,7 +5998,7 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="2:4">
@@ -6039,7 +6006,7 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131" spans="2:4">
@@ -6047,7 +6014,7 @@
         <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="2:4">
@@ -6055,7 +6022,7 @@
         <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="133" spans="2:4">
@@ -6063,7 +6030,7 @@
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="2:4">
@@ -6071,7 +6038,7 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="2:4">
@@ -6079,7 +6046,7 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="2:4">
@@ -6087,7 +6054,7 @@
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="2:4">
@@ -6095,7 +6062,7 @@
         <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="2:4">
@@ -6103,7 +6070,7 @@
         <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="2:4">
@@ -6111,7 +6078,7 @@
         <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="2:4">
@@ -6119,7 +6086,7 @@
         <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="2:4">
@@ -6127,7 +6094,7 @@
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="2:4">
@@ -6135,7 +6102,7 @@
         <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="2:4">
@@ -6143,7 +6110,7 @@
         <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="2:4">
@@ -6151,7 +6118,7 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="2:4">
@@ -6159,7 +6126,7 @@
         <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="2:4">
@@ -6167,7 +6134,7 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="2:4">
@@ -6175,7 +6142,7 @@
         <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="2:4">
@@ -6183,7 +6150,7 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="2:4">
@@ -6191,7 +6158,7 @@
         <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" spans="2:4">
@@ -6199,7 +6166,7 @@
         <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="2:4">
@@ -6207,7 +6174,7 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="2:4">
@@ -6215,7 +6182,7 @@
         <v>155</v>
       </c>
       <c r="D152" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="2:4">
@@ -6223,7 +6190,7 @@
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="2:4">
@@ -6231,7 +6198,7 @@
         <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="2:4">
@@ -6239,7 +6206,7 @@
         <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="2:4">
@@ -6247,7 +6214,7 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="2:4">
@@ -6255,7 +6222,7 @@
         <v>160</v>
       </c>
       <c r="D157" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="2:4">
@@ -6263,7 +6230,7 @@
         <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="2:4">
@@ -6271,7 +6238,7 @@
         <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="2:4">
@@ -6279,7 +6246,7 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161" spans="2:4">
@@ -6287,7 +6254,7 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="2:4">
@@ -6295,7 +6262,7 @@
         <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="2:4">
@@ -6303,7 +6270,7 @@
         <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" spans="2:4">
@@ -6311,7 +6278,7 @@
         <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="165" spans="2:4">
@@ -6319,7 +6286,7 @@
         <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" spans="2:4">
@@ -6327,7 +6294,7 @@
         <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="167" spans="2:4">
@@ -6335,7 +6302,7 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -6343,7 +6310,7 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -6351,7 +6318,7 @@
         <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="2:4">
@@ -6359,47 +6326,47 @@
         <v>173</v>
       </c>
       <c r="D170" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D172" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D173" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D174" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="2:4">
@@ -6407,7 +6374,7 @@
         <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="177" spans="2:4">
@@ -6415,7 +6382,7 @@
         <v>179</v>
       </c>
       <c r="D177" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="2:4">
@@ -6423,7 +6390,7 @@
         <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" spans="2:4">
@@ -6431,7 +6398,7 @@
         <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="2:4">
@@ -6439,7 +6406,7 @@
         <v>182</v>
       </c>
       <c r="D180" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="2:4">
@@ -6447,7 +6414,7 @@
         <v>183</v>
       </c>
       <c r="D181" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="2:4">
@@ -6455,7 +6422,7 @@
         <v>184</v>
       </c>
       <c r="D182" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="2:4">
@@ -6463,7 +6430,7 @@
         <v>185</v>
       </c>
       <c r="D183" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="2:4">
@@ -6471,7 +6438,7 @@
         <v>186</v>
       </c>
       <c r="D184" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="2:4">
@@ -6479,7 +6446,7 @@
         <v>187</v>
       </c>
       <c r="D185" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="2:4">
@@ -6487,7 +6454,7 @@
         <v>188</v>
       </c>
       <c r="D186" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="187" spans="2:4">
@@ -6495,7 +6462,7 @@
         <v>189</v>
       </c>
       <c r="D187" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="2:4">
@@ -6503,7 +6470,7 @@
         <v>190</v>
       </c>
       <c r="D188" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="2:4">
@@ -6511,7 +6478,7 @@
         <v>191</v>
       </c>
       <c r="D189" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="2:4">
@@ -6519,47 +6486,47 @@
         <v>192</v>
       </c>
       <c r="D190" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D192" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D193" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D194" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="D195" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="196" spans="2:4">
@@ -6567,7 +6534,7 @@
         <v>197</v>
       </c>
       <c r="D196" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="2:4">
@@ -6575,7 +6542,7 @@
         <v>198</v>
       </c>
       <c r="D197" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="198" spans="2:4">
@@ -6583,7 +6550,7 @@
         <v>199</v>
       </c>
       <c r="D198" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="2:4">
@@ -6591,7 +6558,7 @@
         <v>200</v>
       </c>
       <c r="D199" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="2:4">
@@ -6599,7 +6566,7 @@
         <v>201</v>
       </c>
       <c r="D200" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="2:4">
@@ -6607,7 +6574,7 @@
         <v>202</v>
       </c>
       <c r="D201" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="2:4">
@@ -6615,7 +6582,7 @@
         <v>203</v>
       </c>
       <c r="D202" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="2:4">
@@ -6623,7 +6590,7 @@
         <v>204</v>
       </c>
       <c r="D203" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" spans="2:4">
@@ -6631,7 +6598,7 @@
         <v>205</v>
       </c>
       <c r="D204" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="2:4">
@@ -6639,7 +6606,7 @@
         <v>206</v>
       </c>
       <c r="D205" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="2:4">
@@ -6647,7 +6614,7 @@
         <v>207</v>
       </c>
       <c r="D206" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="207" spans="2:4">
@@ -6655,7 +6622,7 @@
         <v>208</v>
       </c>
       <c r="D207" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208" spans="2:4">
@@ -6663,7 +6630,7 @@
         <v>209</v>
       </c>
       <c r="D208" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="2:4">
@@ -6671,7 +6638,7 @@
         <v>210</v>
       </c>
       <c r="D209" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="2:4">
@@ -6679,7 +6646,7 @@
         <v>211</v>
       </c>
       <c r="D210" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="2:4">
@@ -6687,7 +6654,7 @@
         <v>212</v>
       </c>
       <c r="D211" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="2:4">
@@ -6695,7 +6662,7 @@
         <v>213</v>
       </c>
       <c r="D212" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="213" spans="2:4">
@@ -6703,7 +6670,7 @@
         <v>214</v>
       </c>
       <c r="D213" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="214" spans="2:4">
@@ -6711,7 +6678,7 @@
         <v>215</v>
       </c>
       <c r="D214" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="215" spans="2:4">
@@ -6719,7 +6686,7 @@
         <v>216</v>
       </c>
       <c r="D215" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="2:4">
@@ -6727,7 +6694,7 @@
         <v>217</v>
       </c>
       <c r="D216" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="217" spans="2:4">
@@ -6735,7 +6702,7 @@
         <v>218</v>
       </c>
       <c r="D217" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="2:4">
@@ -6743,7 +6710,7 @@
         <v>219</v>
       </c>
       <c r="D218" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="2:4">
@@ -6751,7 +6718,7 @@
         <v>220</v>
       </c>
       <c r="D219" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="2:4">
@@ -6759,63 +6726,63 @@
         <v>221</v>
       </c>
       <c r="D220" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="D221" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D222" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D223" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D224" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D225" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="D227" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="228" spans="2:4">
@@ -6823,7 +6790,7 @@
         <v>228</v>
       </c>
       <c r="D228" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="2:4">
@@ -6831,7 +6798,7 @@
         <v>229</v>
       </c>
       <c r="D229" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="230" spans="2:4">
@@ -6839,7 +6806,7 @@
         <v>230</v>
       </c>
       <c r="D230" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231" spans="2:4">
@@ -6847,7 +6814,7 @@
         <v>231</v>
       </c>
       <c r="D231" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="2:4">
@@ -6855,7 +6822,7 @@
         <v>232</v>
       </c>
       <c r="D232" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="2:4">
@@ -6863,7 +6830,7 @@
         <v>233</v>
       </c>
       <c r="D233" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="2:4">
@@ -6871,7 +6838,7 @@
         <v>234</v>
       </c>
       <c r="D234" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="2:4">
@@ -6879,7 +6846,7 @@
         <v>235</v>
       </c>
       <c r="D235" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="2:4">
@@ -6887,7 +6854,7 @@
         <v>236</v>
       </c>
       <c r="D236" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="2:4">
@@ -6895,7 +6862,7 @@
         <v>237</v>
       </c>
       <c r="D237" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="238" spans="2:4">
@@ -6903,7 +6870,7 @@
         <v>238</v>
       </c>
       <c r="D238" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239" spans="2:4">
@@ -6911,7 +6878,7 @@
         <v>239</v>
       </c>
       <c r="D239" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="240" spans="2:4">
@@ -6919,7 +6886,7 @@
         <v>240</v>
       </c>
       <c r="D240" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="241" spans="2:4">
@@ -6927,7 +6894,7 @@
         <v>241</v>
       </c>
       <c r="D241" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="242" spans="2:4">
@@ -6935,7 +6902,7 @@
         <v>242</v>
       </c>
       <c r="D242" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="2:4">
@@ -6943,7 +6910,7 @@
         <v>243</v>
       </c>
       <c r="D243" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="244" spans="2:4">
@@ -6951,7 +6918,7 @@
         <v>244</v>
       </c>
       <c r="D244" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="245" spans="2:4">
@@ -6959,7 +6926,7 @@
         <v>245</v>
       </c>
       <c r="D245" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="246" spans="2:4">
@@ -6967,7 +6934,7 @@
         <v>246</v>
       </c>
       <c r="D246" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247" spans="2:4">
@@ -6975,7 +6942,7 @@
         <v>247</v>
       </c>
       <c r="D247" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="248" spans="2:4">
@@ -6983,7 +6950,7 @@
         <v>248</v>
       </c>
       <c r="D248" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" spans="2:4">
@@ -6991,7 +6958,7 @@
         <v>249</v>
       </c>
       <c r="D249" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="250" spans="2:4">
@@ -6999,7 +6966,7 @@
         <v>250</v>
       </c>
       <c r="D250" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="251" spans="2:4">
@@ -7007,7 +6974,7 @@
         <v>251</v>
       </c>
       <c r="D251" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252" spans="2:4">
@@ -7015,7 +6982,7 @@
         <v>252</v>
       </c>
       <c r="D252" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="253" spans="2:4">
@@ -7023,7 +6990,7 @@
         <v>253</v>
       </c>
       <c r="D253" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="2:4">
@@ -7031,7 +6998,7 @@
         <v>254</v>
       </c>
       <c r="D254" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="255" spans="2:4">
@@ -7039,7 +7006,7 @@
         <v>255</v>
       </c>
       <c r="D255" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="2:4">
@@ -7047,7 +7014,7 @@
         <v>256</v>
       </c>
       <c r="D256" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="257" spans="2:4">
@@ -7055,119 +7022,119 @@
         <v>257</v>
       </c>
       <c r="D257" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="D258" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D259" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D260" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D261" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D262" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D263" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D264" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D265" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D266" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D267" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D268" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D269" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="D271" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="272" spans="2:4">
@@ -7175,7 +7142,7 @@
         <v>270</v>
       </c>
       <c r="D272" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="273" spans="2:4">
@@ -7183,7 +7150,7 @@
         <v>271</v>
       </c>
       <c r="D273" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="274" spans="2:4">
@@ -7191,7 +7158,7 @@
         <v>272</v>
       </c>
       <c r="D274" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="275" spans="2:4">
@@ -7199,7 +7166,7 @@
         <v>273</v>
       </c>
       <c r="D275" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="276" spans="2:4">
@@ -7207,7 +7174,7 @@
         <v>274</v>
       </c>
       <c r="D276" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="277" spans="2:4">
@@ -7215,7 +7182,7 @@
         <v>275</v>
       </c>
       <c r="D277" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="278" spans="2:4">
@@ -7223,7 +7190,7 @@
         <v>276</v>
       </c>
       <c r="D278" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="2:4">
@@ -7231,7 +7198,7 @@
         <v>277</v>
       </c>
       <c r="D279" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="280" spans="2:4">
@@ -7239,7 +7206,7 @@
         <v>278</v>
       </c>
       <c r="D280" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="281" spans="2:4">
@@ -7247,7 +7214,7 @@
         <v>279</v>
       </c>
       <c r="D281" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="282" spans="2:4">
@@ -7255,7 +7222,7 @@
         <v>280</v>
       </c>
       <c r="D282" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="2:4">
@@ -7263,7 +7230,7 @@
         <v>281</v>
       </c>
       <c r="D283" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="284" spans="2:4">
@@ -7271,7 +7238,7 @@
         <v>282</v>
       </c>
       <c r="D284" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="285" spans="2:4">
@@ -7279,7 +7246,7 @@
         <v>283</v>
       </c>
       <c r="D285" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="286" spans="2:4">
@@ -7287,7 +7254,7 @@
         <v>284</v>
       </c>
       <c r="D286" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="287" spans="2:4">
@@ -7295,79 +7262,79 @@
         <v>285</v>
       </c>
       <c r="D287" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="D288" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D289" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D290" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D291" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D292" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D293" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D294" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D295" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="D296" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="297" spans="2:4">
@@ -7375,7 +7342,7 @@
         <v>294</v>
       </c>
       <c r="D297" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="298" spans="2:4">
@@ -7383,7 +7350,7 @@
         <v>295</v>
       </c>
       <c r="D298" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="2:4">
@@ -7391,7 +7358,7 @@
         <v>296</v>
       </c>
       <c r="D299" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="300" spans="2:4">
@@ -7399,7 +7366,7 @@
         <v>297</v>
       </c>
       <c r="D300" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="301" spans="2:4">
@@ -7407,7 +7374,7 @@
         <v>298</v>
       </c>
       <c r="D301" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="302" spans="2:4">
@@ -7415,7 +7382,7 @@
         <v>299</v>
       </c>
       <c r="D302" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="303" spans="2:4">
@@ -7423,311 +7390,311 @@
         <v>300</v>
       </c>
       <c r="D303" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="D304" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D305" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D306" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D307" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="308" spans="2:4">
       <c r="B308" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D308" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="309" spans="2:4">
       <c r="B309" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D309" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
     </row>
     <row r="310" spans="2:4">
       <c r="B310" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="D310" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="311" spans="2:4">
       <c r="B311" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="D311" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
     </row>
     <row r="312" spans="2:4">
       <c r="B312" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D312" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="313" spans="2:4">
       <c r="B313" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D313" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
     </row>
     <row r="314" spans="2:4">
       <c r="B314" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="D314" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="315" spans="2:4">
       <c r="B315" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D315" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
     </row>
     <row r="316" spans="2:4">
       <c r="B316" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D316" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="317" spans="2:4">
       <c r="B317" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="D317" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318" spans="2:4">
       <c r="B318" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D318" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="319" spans="2:4">
       <c r="B319" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D319" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="320" spans="2:4">
       <c r="B320" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D320" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="321" spans="2:4">
       <c r="B321" t="s">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="D321" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
     </row>
     <row r="322" spans="2:4">
       <c r="B322" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D322" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="323" spans="2:4">
       <c r="B323" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D323" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="324" spans="2:4">
       <c r="B324" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D324" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
     </row>
     <row r="325" spans="2:4">
       <c r="B325" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D325" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="326" spans="2:4">
       <c r="B326" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D326" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="327" spans="2:4">
       <c r="B327" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="D327" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="328" spans="2:4">
       <c r="B328" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D328" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="329" spans="2:4">
       <c r="B329" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D329" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="330" spans="2:4">
       <c r="B330" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D330" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="331" spans="2:4">
       <c r="B331" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D331" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="332" spans="2:4">
       <c r="B332" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D332" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="333" spans="2:4">
       <c r="B333" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D333" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="334" spans="2:4">
       <c r="B334" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D334" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="335" spans="2:4">
       <c r="B335" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D335" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="336" spans="2:4">
       <c r="B336" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D336" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="337" spans="2:4">
       <c r="B337" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D337" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="338" spans="2:4">
       <c r="B338" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D338" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="339" spans="2:4">
       <c r="B339" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D339" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="340" spans="2:4">
       <c r="B340" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D340" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="341" spans="2:4">
       <c r="B341" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="D341" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="342" spans="2:4">
@@ -7735,7 +7702,7 @@
         <v>333</v>
       </c>
       <c r="D342" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="343" spans="2:4">
@@ -7743,7 +7710,7 @@
         <v>334</v>
       </c>
       <c r="D343" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
     </row>
     <row r="344" spans="2:4">
@@ -7751,7 +7718,7 @@
         <v>335</v>
       </c>
       <c r="D344" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="345" spans="2:4">
@@ -7759,7 +7726,7 @@
         <v>336</v>
       </c>
       <c r="D345" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="346" spans="2:4">
@@ -7767,7 +7734,7 @@
         <v>337</v>
       </c>
       <c r="D346" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="347" spans="2:4">
@@ -7775,7 +7742,7 @@
         <v>338</v>
       </c>
       <c r="D347" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
     </row>
     <row r="348" spans="2:4">
@@ -7783,7 +7750,7 @@
         <v>339</v>
       </c>
       <c r="D348" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="349" spans="2:4">
@@ -7791,7 +7758,7 @@
         <v>340</v>
       </c>
       <c r="D349" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="350" spans="2:4">
@@ -7799,7 +7766,7 @@
         <v>341</v>
       </c>
       <c r="D350" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="351" spans="2:4">
@@ -7807,7 +7774,7 @@
         <v>342</v>
       </c>
       <c r="D351" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="352" spans="2:4">
@@ -7815,7 +7782,7 @@
         <v>343</v>
       </c>
       <c r="D352" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="353" spans="2:4">
@@ -7823,7 +7790,7 @@
         <v>344</v>
       </c>
       <c r="D353" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="354" spans="2:4">
@@ -7831,7 +7798,7 @@
         <v>345</v>
       </c>
       <c r="D354" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="355" spans="2:4">
@@ -7839,7 +7806,7 @@
         <v>346</v>
       </c>
       <c r="D355" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="356" spans="2:4">
@@ -7847,7 +7814,7 @@
         <v>347</v>
       </c>
       <c r="D356" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="357" spans="2:4">
@@ -7855,7 +7822,7 @@
         <v>348</v>
       </c>
       <c r="D357" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="358" spans="2:4">
@@ -7863,7 +7830,7 @@
         <v>349</v>
       </c>
       <c r="D358" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
     </row>
     <row r="359" spans="2:4">
@@ -7871,7 +7838,7 @@
         <v>350</v>
       </c>
       <c r="D359" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="360" spans="2:4">
@@ -7879,7 +7846,7 @@
         <v>351</v>
       </c>
       <c r="D360" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="361" spans="2:4">
@@ -7887,7 +7854,7 @@
         <v>352</v>
       </c>
       <c r="D361" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="362" spans="2:4">
@@ -7895,7 +7862,7 @@
         <v>353</v>
       </c>
       <c r="D362" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="363" spans="2:4">
@@ -7903,7 +7870,7 @@
         <v>354</v>
       </c>
       <c r="D363" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="364" spans="2:4">
@@ -7911,7 +7878,7 @@
         <v>355</v>
       </c>
       <c r="D364" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="365" spans="2:4">
@@ -7919,7 +7886,7 @@
         <v>356</v>
       </c>
       <c r="D365" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
     </row>
     <row r="366" spans="2:4">
@@ -7927,7 +7894,7 @@
         <v>357</v>
       </c>
       <c r="D366" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="367" spans="2:4">
@@ -7935,3736 +7902,3703 @@
         <v>358</v>
       </c>
       <c r="D367" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="368" spans="2:4">
       <c r="B368" t="s">
-        <v>359</v>
+        <v>169</v>
       </c>
       <c r="D368" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="369" spans="2:4">
       <c r="B369" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D369" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="D370" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4">
+      <c r="D371" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4">
+      <c r="D372" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4">
+      <c r="D373" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4">
+      <c r="D374" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4">
+      <c r="D375" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
+      <c r="D376" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4">
+      <c r="D377" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="D378" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="D379" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4">
+      <c r="D380" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="B370" t="s">
-        <v>361</v>
-      </c>
-      <c r="D370" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="371" spans="2:4">
-      <c r="B371" t="s">
-        <v>362</v>
-      </c>
-      <c r="D371" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4">
-      <c r="B372" t="s">
-        <v>363</v>
-      </c>
-      <c r="D372" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="B373" t="s">
-        <v>364</v>
-      </c>
-      <c r="D373" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4">
-      <c r="B374" t="s">
-        <v>365</v>
-      </c>
-      <c r="D374" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4">
-      <c r="B375" t="s">
-        <v>366</v>
-      </c>
-      <c r="D375" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4">
-      <c r="B376" t="s">
-        <v>367</v>
-      </c>
-      <c r="D376" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4">
-      <c r="B377" t="s">
-        <v>368</v>
-      </c>
-      <c r="D377" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4">
-      <c r="B378" t="s">
-        <v>369</v>
-      </c>
-      <c r="D378" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4">
-      <c r="B379" t="s">
-        <v>173</v>
-      </c>
-      <c r="D379" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4">
-      <c r="B380" t="s">
-        <v>370</v>
-      </c>
-      <c r="D380" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="381" spans="2:4">
       <c r="D381" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="382" spans="2:4">
       <c r="D382" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
     </row>
     <row r="383" spans="2:4">
       <c r="D383" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
     </row>
     <row r="384" spans="2:4">
       <c r="D384" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="385" spans="4:4">
       <c r="D385" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
     </row>
     <row r="386" spans="4:4">
       <c r="D386" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="387" spans="4:4">
       <c r="D387" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="388" spans="4:4">
       <c r="D388" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="389" spans="4:4">
       <c r="D389" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="390" spans="4:4">
       <c r="D390" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="391" spans="4:4">
       <c r="D391" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="392" spans="4:4">
       <c r="D392" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="393" spans="4:4">
       <c r="D393" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="394" spans="4:4">
       <c r="D394" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="395" spans="4:4">
       <c r="D395" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="396" spans="4:4">
       <c r="D396" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="397" spans="4:4">
       <c r="D397" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="398" spans="4:4">
       <c r="D398" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
     </row>
     <row r="399" spans="4:4">
       <c r="D399" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="400" spans="4:4">
       <c r="D400" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="401" spans="4:4">
       <c r="D401" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="402" spans="4:4">
       <c r="D402" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="403" spans="4:4">
       <c r="D403" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="404" spans="4:4">
       <c r="D404" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="405" spans="4:4">
       <c r="D405" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="406" spans="4:4">
       <c r="D406" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="407" spans="4:4">
       <c r="D407" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="408" spans="4:4">
       <c r="D408" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="409" spans="4:4">
       <c r="D409" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="410" spans="4:4">
       <c r="D410" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="411" spans="4:4">
       <c r="D411" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="412" spans="4:4">
       <c r="D412" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="413" spans="4:4">
       <c r="D413" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
     </row>
     <row r="414" spans="4:4">
       <c r="D414" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="415" spans="4:4">
       <c r="D415" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="416" spans="4:4">
       <c r="D416" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
     </row>
     <row r="417" spans="4:4">
       <c r="D417" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="418" spans="4:4">
       <c r="D418" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="419" spans="4:4">
       <c r="D419" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="420" spans="4:4">
       <c r="D420" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="421" spans="4:4">
       <c r="D421" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="422" spans="4:4">
       <c r="D422" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="423" spans="4:4">
       <c r="D423" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="424" spans="4:4">
       <c r="D424" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="425" spans="4:4">
       <c r="D425" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
     </row>
     <row r="426" spans="4:4">
       <c r="D426" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="427" spans="4:4">
       <c r="D427" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="428" spans="4:4">
       <c r="D428" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
     </row>
     <row r="429" spans="4:4">
       <c r="D429" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="430" spans="4:4">
       <c r="D430" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="431" spans="4:4">
       <c r="D431" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="432" spans="4:4">
       <c r="D432" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="433" spans="4:4">
       <c r="D433" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
     </row>
     <row r="434" spans="4:4">
       <c r="D434" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
     </row>
     <row r="435" spans="4:4">
       <c r="D435" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="436" spans="4:4">
       <c r="D436" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
     </row>
     <row r="437" spans="4:4">
       <c r="D437" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="438" spans="4:4">
       <c r="D438" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
     </row>
     <row r="439" spans="4:4">
       <c r="D439" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
     </row>
     <row r="440" spans="4:4">
       <c r="D440" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="441" spans="4:4">
       <c r="D441" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="442" spans="4:4">
       <c r="D442" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="443" spans="4:4">
       <c r="D443" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="444" spans="4:4">
       <c r="D444" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
     </row>
     <row r="445" spans="4:4">
       <c r="D445" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="446" spans="4:4">
       <c r="D446" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="447" spans="4:4">
       <c r="D447" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="448" spans="4:4">
       <c r="D448" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
     </row>
     <row r="449" spans="4:4">
       <c r="D449" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="450" spans="4:4">
       <c r="D450" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
     <row r="451" spans="4:4">
       <c r="D451" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="452" spans="4:4">
       <c r="D452" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="453" spans="4:4">
       <c r="D453" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="454" spans="4:4">
       <c r="D454" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="455" spans="4:4">
       <c r="D455" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="456" spans="4:4">
       <c r="D456" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="457" spans="4:4">
       <c r="D457" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="458" spans="4:4">
       <c r="D458" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="459" spans="4:4">
       <c r="D459" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="460" spans="4:4">
       <c r="D460" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="461" spans="4:4">
       <c r="D461" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="462" spans="4:4">
       <c r="D462" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
     </row>
     <row r="463" spans="4:4">
       <c r="D463" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
     </row>
     <row r="464" spans="4:4">
       <c r="D464" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="465" spans="4:4">
       <c r="D465" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
     </row>
     <row r="466" spans="4:4">
       <c r="D466" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
     </row>
     <row r="467" spans="4:4">
       <c r="D467" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="468" spans="4:4">
       <c r="D468" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
     </row>
     <row r="469" spans="4:4">
       <c r="D469" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
     </row>
     <row r="470" spans="4:4">
       <c r="D470" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
     </row>
     <row r="471" spans="4:4">
       <c r="D471" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="472" spans="4:4">
       <c r="D472" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
     </row>
     <row r="473" spans="4:4">
       <c r="D473" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="474" spans="4:4">
       <c r="D474" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="475" spans="4:4">
       <c r="D475" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="476" spans="4:4">
       <c r="D476" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="477" spans="4:4">
       <c r="D477" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="478" spans="4:4">
       <c r="D478" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
     </row>
     <row r="479" spans="4:4">
       <c r="D479" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="480" spans="4:4">
       <c r="D480" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="481" spans="4:4">
       <c r="D481" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
     </row>
     <row r="482" spans="4:4">
       <c r="D482" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="483" spans="4:4">
       <c r="D483" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="484" spans="4:4">
       <c r="D484" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
     </row>
     <row r="485" spans="4:4">
       <c r="D485" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="486" spans="4:4">
       <c r="D486" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="487" spans="4:4">
       <c r="D487" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="488" spans="4:4">
       <c r="D488" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="489" spans="4:4">
       <c r="D489" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="490" spans="4:4">
       <c r="D490" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="491" spans="4:4">
       <c r="D491" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="492" spans="4:4">
       <c r="D492" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="493" spans="4:4">
       <c r="D493" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
     </row>
     <row r="494" spans="4:4">
       <c r="D494" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="495" spans="4:4">
       <c r="D495" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
     </row>
     <row r="496" spans="4:4">
       <c r="D496" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="497" spans="4:4">
       <c r="D497" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="498" spans="4:4">
       <c r="D498" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
     </row>
     <row r="499" spans="4:4">
       <c r="D499" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="500" spans="4:4">
       <c r="D500" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="501" spans="4:4">
       <c r="D501" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
     </row>
     <row r="502" spans="4:4">
       <c r="D502" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
     </row>
     <row r="503" spans="4:4">
       <c r="D503" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
     </row>
     <row r="504" spans="4:4">
       <c r="D504" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
     </row>
     <row r="505" spans="4:4">
       <c r="D505" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="506" spans="4:4">
       <c r="D506" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="507" spans="4:4">
       <c r="D507" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="508" spans="4:4">
       <c r="D508" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="509" spans="4:4">
       <c r="D509" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="510" spans="4:4">
       <c r="D510" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="511" spans="4:4">
       <c r="D511" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="512" spans="4:4">
       <c r="D512" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="513" spans="4:4">
       <c r="D513" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="514" spans="4:4">
       <c r="D514" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="515" spans="4:4">
       <c r="D515" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="516" spans="4:4">
       <c r="D516" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="517" spans="4:4">
       <c r="D517" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="518" spans="4:4">
       <c r="D518" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="519" spans="4:4">
       <c r="D519" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="520" spans="4:4">
       <c r="D520" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="521" spans="4:4">
       <c r="D521" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="522" spans="4:4">
       <c r="D522" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
     </row>
     <row r="523" spans="4:4">
       <c r="D523" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
     </row>
     <row r="524" spans="4:4">
       <c r="D524" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
     </row>
     <row r="525" spans="4:4">
       <c r="D525" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
     </row>
     <row r="526" spans="4:4">
       <c r="D526" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
     </row>
     <row r="527" spans="4:4">
       <c r="D527" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
     </row>
     <row r="528" spans="4:4">
       <c r="D528" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="529" spans="4:4">
       <c r="D529" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="530" spans="4:4">
       <c r="D530" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="531" spans="4:4">
       <c r="D531" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="532" spans="4:4">
       <c r="D532" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="533" spans="4:4">
       <c r="D533" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="534" spans="4:4">
       <c r="D534" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
     </row>
     <row r="535" spans="4:4">
       <c r="D535" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="536" spans="4:4">
       <c r="D536" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="537" spans="4:4">
       <c r="D537" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="538" spans="4:4">
       <c r="D538" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="539" spans="4:4">
       <c r="D539" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
     </row>
     <row r="540" spans="4:4">
       <c r="D540" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="541" spans="4:4">
       <c r="D541" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="542" spans="4:4">
       <c r="D542" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="543" spans="4:4">
       <c r="D543" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="544" spans="4:4">
       <c r="D544" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="545" spans="4:4">
       <c r="D545" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="546" spans="4:4">
       <c r="D546" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="547" spans="4:4">
       <c r="D547" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="548" spans="4:4">
       <c r="D548" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="549" spans="4:4">
       <c r="D549" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="550" spans="4:4">
       <c r="D550" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="551" spans="4:4">
       <c r="D551" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="552" spans="4:4">
       <c r="D552" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
     </row>
     <row r="553" spans="4:4">
       <c r="D553" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="554" spans="4:4">
       <c r="D554" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
     </row>
     <row r="555" spans="4:4">
       <c r="D555" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="556" spans="4:4">
       <c r="D556" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
     </row>
     <row r="557" spans="4:4">
       <c r="D557" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="558" spans="4:4">
       <c r="D558" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
     </row>
     <row r="559" spans="4:4">
       <c r="D559" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="560" spans="4:4">
       <c r="D560" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="561" spans="4:4">
       <c r="D561" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="562" spans="4:4">
       <c r="D562" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="563" spans="4:4">
       <c r="D563" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="564" spans="4:4">
       <c r="D564" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="565" spans="4:4">
       <c r="D565" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="566" spans="4:4">
       <c r="D566" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="567" spans="4:4">
       <c r="D567" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="568" spans="4:4">
       <c r="D568" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="569" spans="4:4">
       <c r="D569" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="570" spans="4:4">
       <c r="D570" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="571" spans="4:4">
       <c r="D571" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="572" spans="4:4">
       <c r="D572" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="573" spans="4:4">
       <c r="D573" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="574" spans="4:4">
       <c r="D574" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="575" spans="4:4">
       <c r="D575" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="576" spans="4:4">
       <c r="D576" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="577" spans="4:4">
       <c r="D577" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="578" spans="4:4">
       <c r="D578" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="579" spans="4:4">
       <c r="D579" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="580" spans="4:4">
       <c r="D580" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="581" spans="4:4">
       <c r="D581" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="582" spans="4:4">
       <c r="D582" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="583" spans="4:4">
       <c r="D583" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="584" spans="4:4">
       <c r="D584" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
     </row>
     <row r="585" spans="4:4">
       <c r="D585" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="586" spans="4:4">
       <c r="D586" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
     </row>
     <row r="587" spans="4:4">
       <c r="D587" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="588" spans="4:4">
       <c r="D588" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="589" spans="4:4">
       <c r="D589" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="590" spans="4:4">
       <c r="D590" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="591" spans="4:4">
       <c r="D591" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="592" spans="4:4">
       <c r="D592" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
     </row>
     <row r="593" spans="4:4">
       <c r="D593" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="594" spans="4:4">
       <c r="D594" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
     </row>
     <row r="595" spans="4:4">
       <c r="D595" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
     </row>
     <row r="596" spans="4:4">
       <c r="D596" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
     </row>
     <row r="597" spans="4:4">
       <c r="D597" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="598" spans="4:4">
       <c r="D598" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
     </row>
     <row r="599" spans="4:4">
       <c r="D599" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="600" spans="4:4">
       <c r="D600" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
     </row>
     <row r="601" spans="4:4">
       <c r="D601" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="602" spans="4:4">
       <c r="D602" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="603" spans="4:4">
       <c r="D603" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="604" spans="4:4">
       <c r="D604" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
     </row>
     <row r="605" spans="4:4">
       <c r="D605" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="606" spans="4:4">
       <c r="D606" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
     </row>
     <row r="607" spans="4:4">
       <c r="D607" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="608" spans="4:4">
       <c r="D608" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="609" spans="4:4">
       <c r="D609" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="610" spans="4:4">
       <c r="D610" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="611" spans="4:4">
       <c r="D611" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
     </row>
     <row r="612" spans="4:4">
       <c r="D612" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
     </row>
     <row r="613" spans="4:4">
       <c r="D613" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
     </row>
     <row r="614" spans="4:4">
       <c r="D614" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="615" spans="4:4">
       <c r="D615" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="616" spans="4:4">
       <c r="D616" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="617" spans="4:4">
       <c r="D617" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="618" spans="4:4">
       <c r="D618" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="619" spans="4:4">
       <c r="D619" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="620" spans="4:4">
       <c r="D620" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="621" spans="4:4">
       <c r="D621" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="622" spans="4:4">
       <c r="D622" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="623" spans="4:4">
       <c r="D623" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="624" spans="4:4">
       <c r="D624" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="625" spans="4:4">
       <c r="D625" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="626" spans="4:4">
       <c r="D626" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
     </row>
     <row r="627" spans="4:4">
       <c r="D627" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="628" spans="4:4">
       <c r="D628" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="629" spans="4:4">
       <c r="D629" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="630" spans="4:4">
       <c r="D630" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="631" spans="4:4">
       <c r="D631" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="632" spans="4:4">
       <c r="D632" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="633" spans="4:4">
       <c r="D633" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="634" spans="4:4">
       <c r="D634" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="635" spans="4:4">
       <c r="D635" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="636" spans="4:4">
       <c r="D636" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="637" spans="4:4">
       <c r="D637" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="638" spans="4:4">
       <c r="D638" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="639" spans="4:4">
       <c r="D639" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="640" spans="4:4">
       <c r="D640" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="641" spans="4:4">
       <c r="D641" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="642" spans="4:4">
       <c r="D642" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="643" spans="4:4">
       <c r="D643" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="644" spans="4:4">
       <c r="D644" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="645" spans="4:4">
       <c r="D645" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="646" spans="4:4">
       <c r="D646" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="647" spans="4:4">
       <c r="D647" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="648" spans="4:4">
       <c r="D648" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="649" spans="4:4">
       <c r="D649" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="650" spans="4:4">
       <c r="D650" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="651" spans="4:4">
       <c r="D651" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="652" spans="4:4">
       <c r="D652" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="653" spans="4:4">
       <c r="D653" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="654" spans="4:4">
       <c r="D654" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="655" spans="4:4">
       <c r="D655" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="656" spans="4:4">
       <c r="D656" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="657" spans="4:4">
       <c r="D657" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="658" spans="4:4">
       <c r="D658" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="659" spans="4:4">
       <c r="D659" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="660" spans="4:4">
       <c r="D660" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="661" spans="4:4">
       <c r="D661" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="662" spans="4:4">
       <c r="D662" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="663" spans="4:4">
       <c r="D663" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="664" spans="4:4">
       <c r="D664" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="665" spans="4:4">
       <c r="D665" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="666" spans="4:4">
       <c r="D666" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="667" spans="4:4">
       <c r="D667" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="668" spans="4:4">
       <c r="D668" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="669" spans="4:4">
       <c r="D669" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="670" spans="4:4">
       <c r="D670" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="671" spans="4:4">
       <c r="D671" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="672" spans="4:4">
       <c r="D672" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="673" spans="4:4">
       <c r="D673" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="674" spans="4:4">
       <c r="D674" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="675" spans="4:4">
       <c r="D675" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="676" spans="4:4">
       <c r="D676" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="677" spans="4:4">
       <c r="D677" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="678" spans="4:4">
       <c r="D678" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="679" spans="4:4">
       <c r="D679" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="680" spans="4:4">
       <c r="D680" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="681" spans="4:4">
       <c r="D681" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="682" spans="4:4">
       <c r="D682" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="683" spans="4:4">
       <c r="D683" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="684" spans="4:4">
       <c r="D684" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="685" spans="4:4">
       <c r="D685" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="686" spans="4:4">
       <c r="D686" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="687" spans="4:4">
       <c r="D687" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="688" spans="4:4">
       <c r="D688" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="689" spans="4:4">
       <c r="D689" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="690" spans="4:4">
       <c r="D690" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="691" spans="4:4">
       <c r="D691" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="692" spans="4:4">
       <c r="D692" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="693" spans="4:4">
       <c r="D693" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="694" spans="4:4">
       <c r="D694" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="695" spans="4:4">
       <c r="D695" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="696" spans="4:4">
       <c r="D696" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="697" spans="4:4">
       <c r="D697" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="698" spans="4:4">
       <c r="D698" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="699" spans="4:4">
       <c r="D699" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="700" spans="4:4">
       <c r="D700" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="701" spans="4:4">
       <c r="D701" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="702" spans="4:4">
       <c r="D702" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="703" spans="4:4">
       <c r="D703" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="704" spans="4:4">
       <c r="D704" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="705" spans="4:4">
       <c r="D705" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="706" spans="4:4">
       <c r="D706" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="707" spans="4:4">
       <c r="D707" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="708" spans="4:4">
       <c r="D708" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="709" spans="4:4">
       <c r="D709" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="710" spans="4:4">
       <c r="D710" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="711" spans="4:4">
       <c r="D711" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="712" spans="4:4">
       <c r="D712" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="713" spans="4:4">
       <c r="D713" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="714" spans="4:4">
       <c r="D714" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="715" spans="4:4">
       <c r="D715" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="716" spans="4:4">
       <c r="D716" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="717" spans="4:4">
       <c r="D717" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="718" spans="4:4">
       <c r="D718" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="719" spans="4:4">
       <c r="D719" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="720" spans="4:4">
       <c r="D720" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="721" spans="4:4">
       <c r="D721" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="722" spans="4:4">
       <c r="D722" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="723" spans="4:4">
       <c r="D723" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="724" spans="4:4">
       <c r="D724" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="725" spans="4:4">
       <c r="D725" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="726" spans="4:4">
       <c r="D726" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="727" spans="4:4">
       <c r="D727" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="728" spans="4:4">
       <c r="D728" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="729" spans="4:4">
       <c r="D729" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="730" spans="4:4">
       <c r="D730" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="731" spans="4:4">
       <c r="D731" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="732" spans="4:4">
       <c r="D732" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="733" spans="4:4">
       <c r="D733" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="734" spans="4:4">
       <c r="D734" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="735" spans="4:4">
       <c r="D735" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="736" spans="4:4">
       <c r="D736" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="737" spans="4:4">
       <c r="D737" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="738" spans="4:4">
       <c r="D738" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="739" spans="4:4">
       <c r="D739" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="740" spans="4:4">
       <c r="D740" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="741" spans="4:4">
       <c r="D741" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="742" spans="4:4">
       <c r="D742" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="743" spans="4:4">
       <c r="D743" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="744" spans="4:4">
       <c r="D744" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="745" spans="4:4">
       <c r="D745" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="746" spans="4:4">
       <c r="D746" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="747" spans="4:4">
       <c r="D747" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="748" spans="4:4">
       <c r="D748" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="749" spans="4:4">
       <c r="D749" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="750" spans="4:4">
       <c r="D750" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="751" spans="4:4">
       <c r="D751" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="752" spans="4:4">
       <c r="D752" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="753" spans="4:4">
       <c r="D753" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="754" spans="4:4">
       <c r="D754" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="755" spans="4:4">
       <c r="D755" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="756" spans="4:4">
       <c r="D756" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="757" spans="4:4">
       <c r="D757" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="758" spans="4:4">
       <c r="D758" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="759" spans="4:4">
       <c r="D759" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="760" spans="4:4">
       <c r="D760" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="761" spans="4:4">
       <c r="D761" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="762" spans="4:4">
       <c r="D762" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="763" spans="4:4">
       <c r="D763" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="764" spans="4:4">
       <c r="D764" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="765" spans="4:4">
       <c r="D765" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="766" spans="4:4">
       <c r="D766" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="767" spans="4:4">
       <c r="D767" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="768" spans="4:4">
       <c r="D768" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="769" spans="4:4">
       <c r="D769" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="770" spans="4:4">
       <c r="D770" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="771" spans="4:4">
       <c r="D771" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="772" spans="4:4">
       <c r="D772" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="773" spans="4:4">
       <c r="D773" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="774" spans="4:4">
       <c r="D774" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="775" spans="4:4">
       <c r="D775" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="776" spans="4:4">
       <c r="D776" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="777" spans="4:4">
       <c r="D777" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="778" spans="4:4">
       <c r="D778" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="779" spans="4:4">
       <c r="D779" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="780" spans="4:4">
       <c r="D780" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="781" spans="4:4">
       <c r="D781" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="782" spans="4:4">
       <c r="D782" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="783" spans="4:4">
       <c r="D783" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="784" spans="4:4">
       <c r="D784" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="785" spans="4:4">
       <c r="D785" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="786" spans="4:4">
       <c r="D786" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="787" spans="4:4">
       <c r="D787" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="788" spans="4:4">
       <c r="D788" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="789" spans="4:4">
       <c r="D789" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="790" spans="4:4">
       <c r="D790" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="791" spans="4:4">
       <c r="D791" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="792" spans="4:4">
       <c r="D792" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="793" spans="4:4">
       <c r="D793" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="794" spans="4:4">
       <c r="D794" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="795" spans="4:4">
       <c r="D795" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="796" spans="4:4">
       <c r="D796" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="797" spans="4:4">
       <c r="D797" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="798" spans="4:4">
       <c r="D798" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="799" spans="4:4">
       <c r="D799" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="800" spans="4:4">
       <c r="D800" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="801" spans="4:4">
       <c r="D801" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="802" spans="4:4">
       <c r="D802" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="803" spans="4:4">
       <c r="D803" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="804" spans="4:4">
       <c r="D804" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="805" spans="4:4">
       <c r="D805" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="806" spans="4:4">
       <c r="D806" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="807" spans="4:4">
       <c r="D807" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="808" spans="4:4">
       <c r="D808" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="809" spans="4:4">
       <c r="D809" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="810" spans="4:4">
       <c r="D810" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="811" spans="4:4">
       <c r="D811" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="812" spans="4:4">
       <c r="D812" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="813" spans="4:4">
       <c r="D813" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="814" spans="4:4">
       <c r="D814" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="815" spans="4:4">
       <c r="D815" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="816" spans="4:4">
       <c r="D816" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="817" spans="4:4">
       <c r="D817" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="818" spans="4:4">
       <c r="D818" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="819" spans="4:4">
       <c r="D819" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="820" spans="4:4">
       <c r="D820" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="821" spans="4:4">
       <c r="D821" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="822" spans="4:4">
       <c r="D822" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="823" spans="4:4">
       <c r="D823" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="824" spans="4:4">
       <c r="D824" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="825" spans="4:4">
       <c r="D825" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="826" spans="4:4">
       <c r="D826" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="827" spans="4:4">
       <c r="D827" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="828" spans="4:4">
       <c r="D828" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="829" spans="4:4">
       <c r="D829" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="830" spans="4:4">
       <c r="D830" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="831" spans="4:4">
       <c r="D831" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="832" spans="4:4">
       <c r="D832" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="833" spans="4:4">
       <c r="D833" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="834" spans="4:4">
       <c r="D834" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="835" spans="4:4">
       <c r="D835" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="836" spans="4:4">
       <c r="D836" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="837" spans="4:4">
       <c r="D837" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="838" spans="4:4">
       <c r="D838" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="839" spans="4:4">
       <c r="D839" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="840" spans="4:4">
       <c r="D840" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="841" spans="4:4">
       <c r="D841" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="842" spans="4:4">
       <c r="D842" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="843" spans="4:4">
       <c r="D843" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="844" spans="4:4">
       <c r="D844" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="845" spans="4:4">
       <c r="D845" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="846" spans="4:4">
       <c r="D846" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="847" spans="4:4">
       <c r="D847" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="848" spans="4:4">
       <c r="D848" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="849" spans="4:4">
       <c r="D849" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="850" spans="4:4">
       <c r="D850" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="851" spans="4:4">
       <c r="D851" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="852" spans="4:4">
       <c r="D852" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="853" spans="4:4">
       <c r="D853" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="854" spans="4:4">
       <c r="D854" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="855" spans="4:4">
       <c r="D855" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="856" spans="4:4">
       <c r="D856" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="857" spans="4:4">
       <c r="D857" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="858" spans="4:4">
       <c r="D858" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="859" spans="4:4">
       <c r="D859" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="860" spans="4:4">
       <c r="D860" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="861" spans="4:4">
       <c r="D861" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="862" spans="4:4">
       <c r="D862" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="863" spans="4:4">
       <c r="D863" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="864" spans="4:4">
       <c r="D864" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="865" spans="4:4">
       <c r="D865" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="866" spans="4:4">
       <c r="D866" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="867" spans="4:4">
       <c r="D867" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="868" spans="4:4">
       <c r="D868" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="869" spans="4:4">
       <c r="D869" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="870" spans="4:4">
       <c r="D870" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="871" spans="4:4">
       <c r="D871" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="872" spans="4:4">
       <c r="D872" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="873" spans="4:4">
       <c r="D873" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="874" spans="4:4">
       <c r="D874" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="875" spans="4:4">
       <c r="D875" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="876" spans="4:4">
       <c r="D876" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="877" spans="4:4">
       <c r="D877" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="878" spans="4:4">
       <c r="D878" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="879" spans="4:4">
       <c r="D879" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="880" spans="4:4">
       <c r="D880" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="881" spans="4:4">
       <c r="D881" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="882" spans="4:4">
       <c r="D882" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="883" spans="4:4">
       <c r="D883" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="884" spans="4:4">
       <c r="D884" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="885" spans="4:4">
       <c r="D885" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="886" spans="4:4">
       <c r="D886" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="887" spans="4:4">
       <c r="D887" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="888" spans="4:4">
       <c r="D888" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="889" spans="4:4">
       <c r="D889" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="890" spans="4:4">
       <c r="D890" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="891" spans="4:4">
       <c r="D891" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="892" spans="4:4">
       <c r="D892" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="893" spans="4:4">
       <c r="D893" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="894" spans="4:4">
       <c r="D894" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="895" spans="4:4">
       <c r="D895" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="896" spans="4:4">
       <c r="D896" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="897" spans="4:4">
       <c r="D897" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="898" spans="4:4">
       <c r="D898" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="899" spans="4:4">
       <c r="D899" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="900" spans="4:4">
       <c r="D900" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="901" spans="4:4">
       <c r="D901" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="902" spans="4:4">
       <c r="D902" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="903" spans="4:4">
       <c r="D903" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="904" spans="4:4">
       <c r="D904" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="905" spans="4:4">
       <c r="D905" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="906" spans="4:4">
       <c r="D906" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="907" spans="4:4">
       <c r="D907" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="908" spans="4:4">
       <c r="D908" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="909" spans="4:4">
       <c r="D909" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="910" spans="4:4">
       <c r="D910" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="911" spans="4:4">
       <c r="D911" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="912" spans="4:4">
       <c r="D912" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="913" spans="4:4">
       <c r="D913" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="914" spans="4:4">
       <c r="D914" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="915" spans="4:4">
       <c r="D915" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="916" spans="4:4">
       <c r="D916" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="917" spans="4:4">
       <c r="D917" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="918" spans="4:4">
       <c r="D918" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="919" spans="4:4">
       <c r="D919" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="920" spans="4:4">
       <c r="D920" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="921" spans="4:4">
       <c r="D921" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="922" spans="4:4">
       <c r="D922" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="923" spans="4:4">
       <c r="D923" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="924" spans="4:4">
       <c r="D924" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="925" spans="4:4">
       <c r="D925" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="926" spans="4:4">
       <c r="D926" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="927" spans="4:4">
       <c r="D927" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="928" spans="4:4">
       <c r="D928" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="929" spans="4:4">
       <c r="D929" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="930" spans="4:4">
       <c r="D930" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="931" spans="4:4">
       <c r="D931" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="932" spans="4:4">
       <c r="D932" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="933" spans="4:4">
       <c r="D933" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="934" spans="4:4">
       <c r="D934" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="935" spans="4:4">
       <c r="D935" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="936" spans="4:4">
       <c r="D936" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="937" spans="4:4">
       <c r="D937" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="938" spans="4:4">
       <c r="D938" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="939" spans="4:4">
       <c r="D939" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="940" spans="4:4">
       <c r="D940" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="941" spans="4:4">
       <c r="D941" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="942" spans="4:4">
       <c r="D942" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="943" spans="4:4">
       <c r="D943" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="944" spans="4:4">
       <c r="D944" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="945" spans="4:4">
       <c r="D945" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="946" spans="4:4">
       <c r="D946" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="947" spans="4:4">
       <c r="D947" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="948" spans="4:4">
       <c r="D948" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="949" spans="4:4">
       <c r="D949" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="950" spans="4:4">
       <c r="D950" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="951" spans="4:4">
       <c r="D951" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="952" spans="4:4">
       <c r="D952" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="953" spans="4:4">
       <c r="D953" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="954" spans="4:4">
       <c r="D954" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="955" spans="4:4">
       <c r="D955" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="956" spans="4:4">
       <c r="D956" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="957" spans="4:4">
       <c r="D957" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="958" spans="4:4">
       <c r="D958" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="959" spans="4:4">
       <c r="D959" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="960" spans="4:4">
       <c r="D960" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="961" spans="4:4">
       <c r="D961" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="962" spans="4:4">
       <c r="D962" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="963" spans="4:4">
       <c r="D963" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="964" spans="4:4">
       <c r="D964" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="965" spans="4:4">
       <c r="D965" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="966" spans="4:4">
       <c r="D966" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="967" spans="4:4">
       <c r="D967" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="968" spans="4:4">
       <c r="D968" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="969" spans="4:4">
       <c r="D969" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="970" spans="4:4">
       <c r="D970" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="971" spans="4:4">
       <c r="D971" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="972" spans="4:4">
       <c r="D972" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="973" spans="4:4">
       <c r="D973" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="974" spans="4:4">
       <c r="D974" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="975" spans="4:4">
       <c r="D975" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="976" spans="4:4">
       <c r="D976" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="977" spans="4:4">
       <c r="D977" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="978" spans="4:4">
       <c r="D978" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="979" spans="4:4">
       <c r="D979" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="980" spans="4:4">
       <c r="D980" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="981" spans="4:4">
       <c r="D981" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="982" spans="4:4">
       <c r="D982" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="983" spans="4:4">
       <c r="D983" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="984" spans="4:4">
       <c r="D984" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="985" spans="4:4">
       <c r="D985" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="986" spans="4:4">
       <c r="D986" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="987" spans="4:4">
       <c r="D987" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="988" spans="4:4">
       <c r="D988" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="989" spans="4:4">
       <c r="D989" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="990" spans="4:4">
       <c r="D990" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="991" spans="4:4">
       <c r="D991" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="992" spans="4:4">
       <c r="D992" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="993" spans="4:4">
       <c r="D993" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="994" spans="4:4">
       <c r="D994" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="995" spans="4:4">
       <c r="D995" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="996" spans="4:4">
       <c r="D996" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="997" spans="4:4">
       <c r="D997" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="998" spans="4:4">
       <c r="D998" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="999" spans="4:4">
       <c r="D999" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1000" spans="4:4">
       <c r="D1000" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1001" spans="4:4">
       <c r="D1001" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1002" spans="4:4">
       <c r="D1002" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1003" spans="4:4">
       <c r="D1003" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1004" spans="4:4">
       <c r="D1004" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1005" spans="4:4">
       <c r="D1005" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1006" spans="4:4">
       <c r="D1006" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1007" spans="4:4">
       <c r="D1007" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1008" spans="4:4">
       <c r="D1008" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1009" spans="4:4">
       <c r="D1009" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1010" spans="4:4">
       <c r="D1010" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1011" spans="4:4">
       <c r="D1011" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1012" spans="4:4">
       <c r="D1012" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1013" spans="4:4">
       <c r="D1013" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1014" spans="4:4">
       <c r="D1014" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1015" spans="4:4">
       <c r="D1015" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1016" spans="4:4">
       <c r="D1016" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1017" spans="4:4">
       <c r="D1017" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1018" spans="4:4">
       <c r="D1018" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1019" spans="4:4">
       <c r="D1019" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1020" spans="4:4">
       <c r="D1020" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1021" spans="4:4">
       <c r="D1021" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1022" spans="4:4">
       <c r="D1022" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1023" spans="4:4">
       <c r="D1023" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1024" spans="4:4">
       <c r="D1024" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1025" spans="4:4">
       <c r="D1025" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1026" spans="4:4">
       <c r="D1026" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1027" spans="4:4">
       <c r="D1027" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1028" spans="4:4">
       <c r="D1028" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1029" spans="4:4">
       <c r="D1029" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1030" spans="4:4">
       <c r="D1030" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1031" spans="4:4">
       <c r="D1031" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1032" spans="4:4">
       <c r="D1032" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1033" spans="4:4">
       <c r="D1033" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1034" spans="4:4">
       <c r="D1034" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1035" spans="4:4">
       <c r="D1035" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1036" spans="4:4">
       <c r="D1036" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1037" spans="4:4">
       <c r="D1037" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1038" spans="4:4">
       <c r="D1038" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1039" spans="4:4">
       <c r="D1039" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1040" spans="4:4">
       <c r="D1040" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1041" spans="4:4">
       <c r="D1041" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1042" spans="4:4">
       <c r="D1042" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1043" spans="4:4">
       <c r="D1043" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1044" spans="4:4">
       <c r="D1044" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1045" spans="4:4">
       <c r="D1045" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1046" spans="4:4">
       <c r="D1046" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1047" spans="4:4">
       <c r="D1047" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1048" spans="4:4">
       <c r="D1048" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1049" spans="4:4">
       <c r="D1049" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1050" spans="4:4">
       <c r="D1050" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1051" spans="4:4">
       <c r="D1051" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1052" spans="4:4">
       <c r="D1052" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1053" spans="4:4">
       <c r="D1053" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1054" spans="4:4">
       <c r="D1054" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1055" spans="4:4">
       <c r="D1055" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1056" spans="4:4">
       <c r="D1056" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1057" spans="4:4">
       <c r="D1057" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1058" spans="4:4">
       <c r="D1058" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1059" spans="4:4">
       <c r="D1059" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1060" spans="4:4">
       <c r="D1060" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1061" spans="4:4">
       <c r="D1061" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1062" spans="4:4">
       <c r="D1062" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1063" spans="4:4">
       <c r="D1063" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1064" spans="4:4">
       <c r="D1064" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1065" spans="4:4">
       <c r="D1065" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1066" spans="4:4">
       <c r="D1066" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1067" spans="4:4">
       <c r="D1067" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1068" spans="4:4">
       <c r="D1068" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1069" spans="4:4">
       <c r="D1069" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1070" spans="4:4">
       <c r="D1070" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1071" spans="4:4">
       <c r="D1071" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1072" spans="4:4">
       <c r="D1072" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1073" spans="4:4">
       <c r="D1073" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1074" spans="4:4">
       <c r="D1074" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1075" spans="4:4">
       <c r="D1075" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1076" spans="4:4">
       <c r="D1076" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1077" spans="4:4">
       <c r="D1077" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1078" spans="4:4">
       <c r="D1078" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1079" spans="4:4">
       <c r="D1079" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1080" spans="4:4">
       <c r="D1080" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1081" spans="4:4">
       <c r="D1081" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1082" spans="4:4">
       <c r="D1082" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1083" spans="4:4">
       <c r="D1083" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1084" spans="4:4">
       <c r="D1084" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1085" spans="4:4">
       <c r="D1085" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1086" spans="4:4">
       <c r="D1086" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1087" spans="4:4">
       <c r="D1087" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1088" spans="4:4">
       <c r="D1088" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1089" spans="4:4">
       <c r="D1089" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1090" spans="4:4">
       <c r="D1090" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1091" spans="4:4">
       <c r="D1091" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1092" spans="4:4">
       <c r="D1092" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1093" spans="4:4">
       <c r="D1093" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1094" spans="4:4">
       <c r="D1094" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1095" spans="4:4">
       <c r="D1095" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1096" spans="4:4">
       <c r="D1096" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1097" spans="4:4">
       <c r="D1097" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1098" spans="4:4">
       <c r="D1098" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1099" spans="4:4">
       <c r="D1099" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1100" spans="4:4">
       <c r="D1100" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1101" spans="4:4">
       <c r="D1101" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1102" spans="4:4">
       <c r="D1102" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1103" spans="4:4">
       <c r="D1103" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1104" spans="4:4">
       <c r="D1104" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1105" spans="4:4">
       <c r="D1105" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
     </row>
   </sheetData>
@@ -11682,37 +11616,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
@@ -11822,25 +11756,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -11852,7 +11786,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11870,7 +11804,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11888,7 +11822,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11906,7 +11840,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11924,7 +11858,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11942,7 +11876,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11960,7 +11894,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11978,7 +11912,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -11996,7 +11930,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12014,7 +11948,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12040,22 +11974,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -12070,7 +12004,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12085,7 +12019,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12100,7 +12034,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12115,7 +12049,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12130,7 +12064,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12145,7 +12079,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12160,7 +12094,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12175,7 +12109,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12190,7 +12124,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12205,7 +12139,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12225,22 +12159,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -12255,7 +12189,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12270,7 +12204,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12285,7 +12219,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12300,7 +12234,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12315,7 +12249,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12330,7 +12264,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12345,7 +12279,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12360,7 +12294,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12375,7 +12309,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12390,7 +12324,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12410,28 +12344,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -12443,7 +12377,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12452,7 +12386,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12464,7 +12398,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12473,7 +12407,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12485,7 +12419,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12494,7 +12428,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12506,7 +12440,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12515,7 +12449,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12527,7 +12461,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12536,7 +12470,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12548,7 +12482,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12557,7 +12491,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12569,7 +12503,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12578,7 +12512,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12590,7 +12524,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12599,7 +12533,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12611,7 +12545,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12620,7 +12554,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>"Percentage,Absolute,Update"</formula1>
@@ -12632,7 +12566,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
       <formula1>indeces!$A$1:$A$4</formula1>
@@ -12641,7 +12575,7 @@
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
-      <formula1>indeces!$B$1:$B$380</formula1>
+      <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
       <formula1>"Percentage,Absolute,Update"</formula1>

--- a/Shocks/Shock_files/Constant_2016_Worst.xlsx
+++ b/Shocks/Shock_files/Constant_2016_Worst.xlsx
@@ -11035,7 +11035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11093,36 +11093,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Production of photovoltaic plants</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Photovoltaic plants</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Production of electricity by solar photovoltaic</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3135810156358102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11133,36 +11133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Production of onshore wind plants</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Onshore wind plants</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Production of electricity by wind</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.0829066924957336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -11173,35 +11173,155 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Production of offshore wind plants</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Offshore wind plants</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>EU27+UK</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Photovoltaic plants</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Production of electricity by solar photovoltaic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3135810156358102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Onshore wind plants</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Production of electricity by wind</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
+        <v>0.0829066924957336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Offshore wind plants</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production of electricity by wind</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0.157791219435055</v>
       </c>
     </row>

--- a/Shocks/Shock_files/Constant_2016_Worst.xlsx
+++ b/Shocks/Shock_files/Constant_2016_Worst.xlsx
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1569809843641898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.2121910880692114</v>
+        <v>0.01096616435336883</v>
       </c>
     </row>
   </sheetData>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.3135810156358102</v>
+        <v>0.5757366589643509</v>
       </c>
     </row>
     <row r="6">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.0829066924957336</v>
+        <v>0.1522171935265189</v>
       </c>
     </row>
     <row r="7">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.157791219435055</v>
+        <v>0.2897056421201122</v>
       </c>
     </row>
   </sheetData>
